--- a/ProcessedData/conf_rbf_SVM_early_fusion_2.xlsx
+++ b/ProcessedData/conf_rbf_SVM_early_fusion_2.xlsx
@@ -398,13 +398,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5730051096973899</v>
+        <v>0.1371024495936475</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6691880720869239</v>
+        <v>0.3509519987554917</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2315122933187321</v>
+        <v>0.5119455516508606</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2475981950931888</v>
+        <v>0.2047986067080705</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4871567412226359</v>
+        <v>0.2813588545897912</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4086535688163707</v>
+        <v>0.5138425387021383</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -438,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.2637042780402883</v>
+        <v>0.177133261216901</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5932025604334934</v>
+        <v>0.2594249120369655</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5275860994096599</v>
+        <v>0.5634418267461331</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -458,13 +458,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.467486826779418</v>
+        <v>0.09005559423802778</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.9779331897572124</v>
+        <v>0.1977382068941388</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.9034760340181649</v>
+        <v>0.7122061988678333</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -478,13 +478,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.346545205927635</v>
+        <v>0.2029853998137285</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.4505270529830343</v>
+        <v>0.3283540422417839</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2279375393792656</v>
+        <v>0.4686605579444879</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -498,13 +498,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6703066428150175</v>
+        <v>0.1171128289252907</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.7368391032670227</v>
+        <v>0.313436341851721</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4134088194165318</v>
+        <v>0.5694508292229884</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -518,13 +518,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.415841494952897</v>
+        <v>0.1701166810688933</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5669516979837477</v>
+        <v>0.3211565413666899</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.29632411935068</v>
+        <v>0.5087267775644163</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6389777565598318</v>
+        <v>0.09521159694876881</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9185499734813144</v>
+        <v>0.304264544822965</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.449951837388893</v>
+        <v>0.6005238582282661</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.7435713862251767</v>
+        <v>0.1260637285528556</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6452286743536073</v>
+        <v>0.4289426548381438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01955131653671888</v>
+        <v>0.4449936166090003</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -578,13 +578,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.7881463179134947</v>
+        <v>0.06105991127018822</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.208903255089671</v>
+        <v>0.3025282251085627</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4957904513951555</v>
+        <v>0.6364118636212488</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -598,13 +598,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2799614454456035</v>
+        <v>0.247645175218002</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2929917596519059</v>
+        <v>0.3479605500801872</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.09680686659862607</v>
+        <v>0.4043942747018107</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -618,13 +618,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.7718475498230639</v>
+        <v>0.1397549160632297</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5123052808020021</v>
+        <v>0.5064071332773108</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3163796033753639</v>
+        <v>0.3538379506594594</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -638,13 +638,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.3863576449988001</v>
+        <v>0.1473645034749282</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6856673525565018</v>
+        <v>0.269091863565193</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5271023684564168</v>
+        <v>0.583543632959879</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -658,13 +658,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.8580116769241756</v>
+        <v>0.08516878560688011</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.9199968671589454</v>
+        <v>0.4120278070555023</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.09335858349634497</v>
+        <v>0.5028034073376177</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -678,13 +678,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.4696425673251883</v>
+        <v>0.1289376385410998</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7416434237546212</v>
+        <v>0.2437940575236813</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.6740585199833328</v>
+        <v>0.6272683039352188</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -698,13 +698,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.3711364350432227</v>
+        <v>0.1793401495116989</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5441367287739698</v>
+        <v>0.3137484185413272</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3101745090531435</v>
+        <v>0.5069114319469741</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -718,13 +718,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.3683887163702876</v>
+        <v>0.2001910021799542</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4510792649164016</v>
+        <v>0.3285948627388328</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2384121151429583</v>
+        <v>0.471214135081213</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -738,13 +738,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.44658993316547</v>
+        <v>0.04032522476585198</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.240390513034073</v>
+        <v>0.7153063424364556</v>
       </c>
       <c r="D19" t="n">
-        <v>0.854283715857188</v>
+        <v>0.2443684327976925</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -758,13 +758,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.6523253735229273</v>
+        <v>0.1304733757699031</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6690641115098721</v>
+        <v>0.3789394158636004</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1452593288079735</v>
+        <v>0.4905872083664964</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -778,13 +778,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.3150549689450716</v>
+        <v>0.1724268727939364</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5994684185527628</v>
+        <v>0.2884045643282929</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.4058248283368706</v>
+        <v>0.5391685628777706</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -798,13 +798,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.8128854083257002</v>
+        <v>0.1259206061336975</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5963140305284251</v>
+        <v>0.463820008036256</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1324149048776689</v>
+        <v>0.4102593858300464</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -818,13 +818,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.376891223078368</v>
+        <v>0.2111531104695764</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.3977304347831147</v>
+        <v>0.3592565313434924</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.09736967961597989</v>
+        <v>0.4295903581869313</v>
       </c>
       <c r="E23" t="n">
         <v>11</v>
@@ -838,13 +838,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6659951691271279</v>
+        <v>0.1152425813814511</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.7473217884299161</v>
+        <v>0.2911507949838749</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.5053898811312431</v>
+        <v>0.593606623634674</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -858,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.68258047116503</v>
+        <v>0.07703880443045871</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9846817781599956</v>
+        <v>0.1805681414081215</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.033421972324927</v>
+        <v>0.7423930541614197</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -878,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.6405198800799008</v>
+        <v>0.1471032153064378</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5858508061854694</v>
+        <v>0.5136882191542</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4064553135804933</v>
+        <v>0.3392085655393624</v>
       </c>
       <c r="E26" t="n">
         <v>11</v>
@@ -898,13 +898,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2106155603790409</v>
+        <v>0.3338028161955173</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2420563563490133</v>
+        <v>0.2223711737856206</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.4360926351767461</v>
+        <v>0.4438260100188625</v>
       </c>
       <c r="E27" t="n">
         <v>11</v>
@@ -918,13 +918,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.4371792980803693</v>
+        <v>0.1665138432571298</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5762820149955197</v>
+        <v>0.334647182656149</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2454017970851967</v>
+        <v>0.498838974086721</v>
       </c>
       <c r="E28" t="n">
         <v>11</v>
@@ -938,13 +938,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5602552310118681</v>
+        <v>0.1288217741045332</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.7357287352984716</v>
+        <v>0.3618804776858273</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1874665810552614</v>
+        <v>0.5092977482096394</v>
       </c>
       <c r="E29" t="n">
         <v>11</v>
@@ -958,13 +958,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.6214484435202837</v>
+        <v>0.1539980932985431</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.5420286093403359</v>
+        <v>0.3525697531792258</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2372114980455284</v>
+        <v>0.493432153522231</v>
       </c>
       <c r="E30" t="n">
         <v>11</v>
@@ -978,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.3299432091068419</v>
+        <v>0.3285504985825292</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1924512351860999</v>
+        <v>0.468223613721326</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5051538397386043</v>
+        <v>0.2032258876961447</v>
       </c>
       <c r="E31" t="n">
         <v>11</v>
@@ -998,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.6024361366268914</v>
+        <v>0.1353853431609863</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.6696416950223419</v>
+        <v>0.38338845769518</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1113395149831927</v>
+        <v>0.4812261991438337</v>
       </c>
       <c r="E32" t="n">
         <v>11</v>
@@ -1018,13 +1018,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.1899327186975428</v>
+        <v>0.1667514958129005</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.6629643060554278</v>
+        <v>0.2371646056694558</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.6111735421323643</v>
+        <v>0.5960838985176439</v>
       </c>
       <c r="E33" t="n">
         <v>11</v>
@@ -1038,13 +1038,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.9566160217172586</v>
+        <v>0.1333661530854484</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.3659321717576077</v>
+        <v>0.6047259068202089</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6544424620590369</v>
+        <v>0.2619079400943424</v>
       </c>
       <c r="E34" t="n">
         <v>11</v>
@@ -1058,13 +1058,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2443887447536243</v>
+        <v>0.2264550416680614</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.4043707588658813</v>
+        <v>0.3080555427815645</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2698073212332061</v>
+        <v>0.4654894155503745</v>
       </c>
       <c r="E35" t="n">
         <v>11</v>
@@ -1078,13 +1078,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.6718408838784651</v>
+        <v>0.1672084737211734</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.4227435764227716</v>
+        <v>0.4470508452278469</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1320132480144661</v>
+        <v>0.3857406810509795</v>
       </c>
       <c r="E36" t="n">
         <v>11</v>
@@ -1098,13 +1098,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.4044026114961251</v>
+        <v>0.2253251226830695</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3139384361530516</v>
+        <v>0.41712270984915</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1670950043948587</v>
+        <v>0.3575521674677804</v>
       </c>
       <c r="E37" t="n">
         <v>11</v>
@@ -1118,13 +1118,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.3768912268062293</v>
+        <v>0.211150249698669</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3977434189410815</v>
+        <v>0.3592524746117088</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0973891427126487</v>
+        <v>0.4295972756896223</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
@@ -1138,13 +1138,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.3769371960983284</v>
+        <v>0.2111431130812877</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3977482153713269</v>
+        <v>0.3592723734345198</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.09732232202586862</v>
+        <v>0.4295845134841925</v>
       </c>
       <c r="E39" t="n">
         <v>11</v>
@@ -1158,13 +1158,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.596852260202256</v>
+        <v>0.1623197990909995</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.5086600210561434</v>
+        <v>0.4216638036583846</v>
       </c>
       <c r="D40" t="n">
-        <v>0.05730963124149553</v>
+        <v>0.4160163972506157</v>
       </c>
       <c r="E40" t="n">
         <v>11</v>
@@ -1178,13 +1178,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.225515867792945</v>
+        <v>0.2894299441521809</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1648760071672823</v>
+        <v>0.3755480681269776</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1133339116256485</v>
+        <v>0.3350219877208415</v>
       </c>
       <c r="E41" t="n">
         <v>11</v>
@@ -1198,13 +1198,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.3768105989169149</v>
+        <v>0.2111848437329335</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3976348404054146</v>
+        <v>0.3592507572470983</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.09734723898813542</v>
+        <v>0.4295643990199678</v>
       </c>
       <c r="E42" t="n">
         <v>11</v>
@@ -1218,13 +1218,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.4446811746073287</v>
+        <v>0.1664388248480455</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.5716444128480012</v>
+        <v>0.3302799413504329</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2677280433823502</v>
+        <v>0.5032812338015215</v>
       </c>
       <c r="E43" t="n">
         <v>11</v>
@@ -1238,13 +1238,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.7667662661094152</v>
+        <v>0.1525116869639616</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.4443957215645166</v>
+        <v>0.4572986267254898</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1323266920017934</v>
+        <v>0.3901896863105485</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
@@ -1258,13 +1258,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.4924572611665708</v>
+        <v>0.1396346152475959</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.6808518382126344</v>
+        <v>0.2802512340354654</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.5095312562378157</v>
+        <v>0.5801141507169385</v>
       </c>
       <c r="E45" t="n">
         <v>11</v>
@@ -1278,13 +1278,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-0.650047091260729</v>
+        <v>0.1816853691793236</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.3525096401890019</v>
+        <v>0.4698088469022915</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2473063379124537</v>
+        <v>0.3485057839183849</v>
       </c>
       <c r="E46" t="n">
         <v>11</v>
@@ -1298,13 +1298,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.3768912967201514</v>
+        <v>0.2111563929718204</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.3977154896448327</v>
+        <v>0.3592612355225841</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.09734715865816661</v>
+        <v>0.4295823715055955</v>
       </c>
       <c r="E47" t="n">
         <v>11</v>
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.6001987356476418</v>
+        <v>0.149615114427724</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.5780521795627265</v>
+        <v>0.314080264885889</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3929042861614779</v>
+        <v>0.5363046206863867</v>
       </c>
       <c r="E48" t="n">
         <v>11</v>
@@ -1338,13 +1338,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.01161232578201082</v>
+        <v>0.3837481728212157</v>
       </c>
       <c r="C49" t="n">
-        <v>0.004168171488703631</v>
+        <v>0.3630008237178947</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4055793724703174</v>
+        <v>0.2532510034608895</v>
       </c>
       <c r="E49" t="n">
         <v>11</v>
@@ -1358,13 +1358,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3082192256982401</v>
+        <v>0.5559690908865663</v>
       </c>
       <c r="C50" t="n">
-        <v>0.413996752151961</v>
+        <v>0.2661074817285871</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1468786727701769</v>
+        <v>0.177923427384847</v>
       </c>
       <c r="E50" t="n">
         <v>12</v>
@@ -1378,13 +1378,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.2872924860124347</v>
+        <v>0.6098767754142459</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9188237867139889</v>
+        <v>0.3231369835754305</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9658826714255299</v>
+        <v>0.06698624101032358</v>
       </c>
       <c r="E51" t="n">
         <v>12</v>
@@ -1398,13 +1398,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9178706192844432</v>
+        <v>0.8175431120703455</v>
       </c>
       <c r="C52" t="n">
-        <v>1.23918501016831</v>
+        <v>0.1490713065419143</v>
       </c>
       <c r="D52" t="n">
-        <v>1.020674759098312</v>
+        <v>0.03338558138774056</v>
       </c>
       <c r="E52" t="n">
         <v>12</v>
@@ -1418,13 +1418,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3499784045228582</v>
+        <v>0.6164264779645285</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7303931167577346</v>
+        <v>0.2908473718997303</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7218170621245117</v>
+        <v>0.09272615013574145</v>
       </c>
       <c r="E53" t="n">
         <v>12</v>
@@ -1438,13 +1438,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.302561500347329</v>
+        <v>0.5439843940719519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.3543038403410524</v>
+        <v>0.2541405272199327</v>
       </c>
       <c r="D54" t="n">
-        <v>0.004216517669719769</v>
+        <v>0.2018750787081152</v>
       </c>
       <c r="E54" t="n">
         <v>12</v>
@@ -1458,13 +1458,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6963274144347913</v>
+        <v>0.7067810477416691</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6626088763851447</v>
+        <v>0.1678905606488275</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.06387541860890597</v>
+        <v>0.1253283916095034</v>
       </c>
       <c r="E55" t="n">
         <v>12</v>
@@ -1478,13 +1478,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07605091921785284</v>
+        <v>0.4660451965635553</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2947067256343752</v>
+        <v>0.3345025592138027</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2802332367916322</v>
+        <v>0.1994522442226419</v>
       </c>
       <c r="E56" t="n">
         <v>12</v>
@@ -1498,13 +1498,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3231828357710717</v>
+        <v>0.6223565015679496</v>
       </c>
       <c r="C57" t="n">
-        <v>0.929971611602923</v>
+        <v>0.3000643130744582</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6863440061310827</v>
+        <v>0.07757918535759221</v>
       </c>
       <c r="E57" t="n">
         <v>12</v>
@@ -1518,13 +1518,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.3226889098984816</v>
+        <v>0.2073746794369518</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.4679780434010489</v>
+        <v>0.4265381642939142</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2542958112815615</v>
+        <v>0.366087156269134</v>
       </c>
       <c r="E58" t="n">
         <v>12</v>
@@ -1538,13 +1538,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.01626573895493599</v>
+        <v>0.4715841671387665</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5679141551010923</v>
+        <v>0.388512840049064</v>
       </c>
       <c r="D59" t="n">
-        <v>0.469385265517286</v>
+        <v>0.1399029928121698</v>
       </c>
       <c r="E59" t="n">
         <v>12</v>
@@ -1558,13 +1558,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5240612224292125</v>
+        <v>0.6960170525416475</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8748791737636955</v>
+        <v>0.201157762974443</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1023301905221949</v>
+        <v>0.1028251844839092</v>
       </c>
       <c r="E60" t="n">
         <v>12</v>
@@ -1578,13 +1578,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5834025236898781</v>
+        <v>0.7113241580855858</v>
       </c>
       <c r="C61" t="n">
-        <v>0.9785560749199768</v>
+        <v>0.2196860601370317</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5730850215577392</v>
+        <v>0.06898978177738258</v>
       </c>
       <c r="E61" t="n">
         <v>12</v>
@@ -1598,13 +1598,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.2018321289190934</v>
+        <v>0.42701409625843</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6064544829413804</v>
+        <v>0.3994763747239136</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1022006573001887</v>
+        <v>0.1735095290176563</v>
       </c>
       <c r="E62" t="n">
         <v>12</v>
@@ -1618,13 +1618,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.2145286710326716</v>
+        <v>0.2515559144360264</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.4647779586138358</v>
+        <v>0.1796203538443427</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.7564770415322895</v>
+        <v>0.5688237317196309</v>
       </c>
       <c r="E63" t="n">
         <v>12</v>
@@ -1638,13 +1638,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.3039374120407929</v>
+        <v>0.3286780836620704</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1412161663586115</v>
+        <v>0.4549159582576735</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4707500461839073</v>
+        <v>0.2164059580802561</v>
       </c>
       <c r="E64" t="n">
         <v>12</v>
@@ -1658,13 +1658,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2829373814068434</v>
+        <v>0.5977480743729354</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7808294702696549</v>
+        <v>0.3059961241201218</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5923086146533068</v>
+        <v>0.0962558015069425</v>
       </c>
       <c r="E65" t="n">
         <v>12</v>
@@ -1678,13 +1678,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-0.524781564152382</v>
+        <v>0.2417868725164683</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.07303435521902163</v>
+        <v>0.533721104400569</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6749451029546668</v>
+        <v>0.224492023082963</v>
       </c>
       <c r="E66" t="n">
         <v>12</v>
@@ -1698,13 +1698,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.9418427455900855</v>
+        <v>0.1691250537791093</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.02210356654248408</v>
+        <v>0.6158468380351301</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6899039595930678</v>
+        <v>0.2150281081857605</v>
       </c>
       <c r="E67" t="n">
         <v>12</v>
@@ -1718,13 +1718,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.2194077222946408</v>
+        <v>0.2707887514105718</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.2402231178548594</v>
+        <v>0.3388144314519518</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.09733274379813614</v>
+        <v>0.3903968171374761</v>
       </c>
       <c r="E68" t="n">
         <v>12</v>
@@ -1738,13 +1738,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.4349183182133328</v>
+        <v>0.2483382491933266</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1622887975515427</v>
+        <v>0.4540959291162395</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3288996133076346</v>
+        <v>0.2975658216904338</v>
       </c>
       <c r="E69" t="n">
         <v>12</v>
@@ -1758,13 +1758,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.105806486020358</v>
+        <v>0.4447159792998343</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1534547509891334</v>
+        <v>0.2892194621693804</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.05510168533268686</v>
+        <v>0.2660645585307854</v>
       </c>
       <c r="E70" t="n">
         <v>12</v>
@@ -1778,13 +1778,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.3719308613305293</v>
+        <v>0.2129371963814136</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.3926375662044834</v>
+        <v>0.3586578682292786</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.09715068210708787</v>
+        <v>0.4284049353893075</v>
       </c>
       <c r="E71" t="n">
         <v>12</v>
@@ -1798,13 +1798,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.6066446012605207</v>
+        <v>0.12727541653212</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.7120988652531526</v>
+        <v>0.3479041440197777</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2565855397761881</v>
+        <v>0.5248204394481023</v>
       </c>
       <c r="E72" t="n">
         <v>12</v>
@@ -1818,13 +1818,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.676218910123926</v>
+        <v>0.1712924643588888</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.3863700704352231</v>
+        <v>0.511477481385796</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4092889026312089</v>
+        <v>0.3172300542553153</v>
       </c>
       <c r="E73" t="n">
         <v>12</v>
@@ -1838,13 +1838,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.4519091559648157</v>
+        <v>0.2722162923887478</v>
       </c>
       <c r="C74" t="n">
-        <v>0.009611663208592525</v>
+        <v>0.486707524246339</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4773197845217776</v>
+        <v>0.2410761833649132</v>
       </c>
       <c r="E74" t="n">
         <v>12</v>
@@ -1858,13 +1858,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.218444032272813</v>
+        <v>0.4260510783086939</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9139144759950152</v>
+        <v>0.4468411151087707</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3545754595489503</v>
+        <v>0.1271078065825352</v>
       </c>
       <c r="E75" t="n">
         <v>12</v>
@@ -1878,13 +1878,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.7626359922465086</v>
+        <v>0.2252523724211233</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5945194173658428</v>
+        <v>0.6648926178417008</v>
       </c>
       <c r="D76" t="n">
-        <v>1.008997426242388</v>
+        <v>0.1098550097371759</v>
       </c>
       <c r="E76" t="n">
         <v>12</v>
@@ -1898,13 +1898,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.377347422375121</v>
+        <v>0.2110833002729093</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.3977735054253038</v>
+        <v>0.3594593520455455</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.09668121540719767</v>
+        <v>0.4294573476815451</v>
       </c>
       <c r="E77" t="n">
         <v>12</v>
@@ -1918,13 +1918,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.5141461515432201</v>
+        <v>0.2715286020103464</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1384709117119023</v>
+        <v>0.5331973898435804</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6525538048420176</v>
+        <v>0.1952740081460729</v>
       </c>
       <c r="E78" t="n">
         <v>12</v>
@@ -1938,13 +1938,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.09064410611176643</v>
+        <v>0.4230066136721629</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3686138790774578</v>
+        <v>0.4349290577293192</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8027976860024078</v>
+        <v>0.1420643285985181</v>
       </c>
       <c r="E79" t="n">
         <v>12</v>
@@ -1958,13 +1958,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.5885756088171579</v>
+        <v>0.1779311074155213</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.4228977010183994</v>
+        <v>0.4294017088237796</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09865356524197431</v>
+        <v>0.3926671837606995</v>
       </c>
       <c r="E80" t="n">
         <v>12</v>
@@ -1978,13 +1978,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.422550071068293</v>
+        <v>0.2066771411614922</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.3898269622472627</v>
+        <v>0.3836487146466745</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.01034685732089866</v>
+        <v>0.4096741441918333</v>
       </c>
       <c r="E81" t="n">
         <v>12</v>
@@ -1998,13 +1998,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.6697752799933839</v>
+        <v>0.2042889663360379</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.1314505513454979</v>
+        <v>0.569136240968412</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7068372851019142</v>
+        <v>0.2265747926955503</v>
       </c>
       <c r="E82" t="n">
         <v>12</v>
@@ -2018,13 +2018,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.08133815761005825</v>
+        <v>0.3658197392285871</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1098400898470442</v>
+        <v>0.2198904355631471</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.615566720233071</v>
+        <v>0.4142898252082658</v>
       </c>
       <c r="E83" t="n">
         <v>12</v>
@@ -2038,13 +2038,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.023256214566994</v>
+        <v>0.8347787725887431</v>
       </c>
       <c r="C84" t="n">
-        <v>1.188262932053252</v>
+        <v>0.1250493200183209</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6887635700541487</v>
+        <v>0.04017190739293595</v>
       </c>
       <c r="E84" t="n">
         <v>12</v>
@@ -2058,13 +2058,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.1301265297053477</v>
+        <v>0.1902990625844234</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.5942838968307801</v>
+        <v>0.2621112651789349</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.4471056068252918</v>
+        <v>0.5475896722366412</v>
       </c>
       <c r="E85" t="n">
         <v>12</v>
@@ -2078,13 +2078,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.06267656687924555</v>
+        <v>0.4385931398672871</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1798838415995055</v>
+        <v>0.313681230106364</v>
       </c>
       <c r="D86" t="n">
-        <v>0.06659237134615763</v>
+        <v>0.247725630026349</v>
       </c>
       <c r="E86" t="n">
         <v>12</v>
@@ -2098,13 +2098,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.293485492770119</v>
+        <v>0.2322809613500968</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.3551710896955579</v>
+        <v>0.3385155666335902</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.145913331772547</v>
+        <v>0.4292034720163128</v>
       </c>
       <c r="E87" t="n">
         <v>12</v>
@@ -2118,13 +2118,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.4701904398912468</v>
+        <v>0.3271443343330828</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7561706859274858</v>
+        <v>0.5336922697688598</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5072275641671354</v>
+        <v>0.1391633958980573</v>
       </c>
       <c r="E88" t="n">
         <v>12</v>
@@ -2138,13 +2138,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.3777741200801457</v>
+        <v>0.2110311256758068</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.3977524891366894</v>
+        <v>0.3595940639986908</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.09629770597182538</v>
+        <v>0.4293748103255025</v>
       </c>
       <c r="E89" t="n">
         <v>12</v>
@@ -2158,13 +2158,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.4573140000100641</v>
+        <v>0.3165070189223916</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6378136964726139</v>
+        <v>0.5871862620125737</v>
       </c>
       <c r="D90" t="n">
-        <v>1.079605030319165</v>
+        <v>0.0963067190650345</v>
       </c>
       <c r="E90" t="n">
         <v>12</v>
@@ -2178,13 +2178,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0938952124741</v>
+        <v>0.8357227172203844</v>
       </c>
       <c r="C91" t="n">
-        <v>1.055578577524028</v>
+        <v>0.1101917448524131</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3959179815837633</v>
+        <v>0.05408553792720248</v>
       </c>
       <c r="E91" t="n">
         <v>12</v>
@@ -2198,13 +2198,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.454368741928913</v>
+        <v>0.4920227557487905</v>
       </c>
       <c r="C92" t="n">
-        <v>0.06268909132879968</v>
+        <v>0.1646778059022802</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.7046414056217428</v>
+        <v>0.3432994383489294</v>
       </c>
       <c r="E92" t="n">
         <v>13</v>
@@ -2218,13 +2218,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-0.5913904880118537</v>
+        <v>0.182252242972389</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.3898253701444931</v>
+        <v>0.4626684024890217</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2408817506118776</v>
+        <v>0.3550793545385892</v>
       </c>
       <c r="E93" t="n">
         <v>13</v>
@@ -2238,13 +2238,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.9821137227382901</v>
+        <v>0.13769522070996</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.3205242041662659</v>
+        <v>0.5917863101854834</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5923299659609609</v>
+        <v>0.2705184691045561</v>
       </c>
       <c r="E94" t="n">
         <v>13</v>
@@ -2258,13 +2258,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.1790719039632761</v>
+        <v>0.2345392308487944</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.4033549916207039</v>
+        <v>0.2866345974715591</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.3423196815652239</v>
+        <v>0.4788261716796465</v>
       </c>
       <c r="E95" t="n">
         <v>13</v>
@@ -2278,13 +2278,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.6667980423226709</v>
+        <v>0.2390187463280706</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2208300756631359</v>
+        <v>0.5936413925890321</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7902911726356693</v>
+        <v>0.167339861082897</v>
       </c>
       <c r="E96" t="n">
         <v>13</v>
@@ -2298,13 +2298,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.031372628077344</v>
+        <v>0.8169771356469148</v>
       </c>
       <c r="C97" t="n">
-        <v>0.970524248579805</v>
+        <v>0.1176202839628803</v>
       </c>
       <c r="D97" t="n">
-        <v>0.2910265884143955</v>
+        <v>0.06540258039020509</v>
       </c>
       <c r="E97" t="n">
         <v>13</v>
@@ -2318,13 +2318,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.2229082218174683</v>
+        <v>0.2304143419030305</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3985917010845783</v>
+        <v>0.2929397443488427</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.3362885425229502</v>
+        <v>0.4766459137481268</v>
       </c>
       <c r="E98" t="n">
         <v>13</v>
@@ -2338,13 +2338,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.1318239892693793</v>
+        <v>0.3598714811239002</v>
       </c>
       <c r="C99" t="n">
-        <v>0.05865864373851415</v>
+        <v>0.4265629934186859</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6200546666596429</v>
+        <v>0.2135655254574137</v>
       </c>
       <c r="E99" t="n">
         <v>13</v>
@@ -2358,13 +2358,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.6454995394528269</v>
+        <v>0.1876955096660213</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.3164278288332477</v>
+        <v>0.4496132434705334</v>
       </c>
       <c r="D100" t="n">
-        <v>0.1535620217931077</v>
+        <v>0.3626912468634452</v>
       </c>
       <c r="E100" t="n">
         <v>13</v>
@@ -2378,13 +2378,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.250447780664484</v>
+        <v>0.2545225365181232</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.2835667888376924</v>
+        <v>0.3411972045909349</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.1102154010105264</v>
+        <v>0.4042802588909416</v>
       </c>
       <c r="E101" t="n">
         <v>13</v>
@@ -2398,13 +2398,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.09265671089340283</v>
+        <v>0.3077198912354701</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1849858465393469</v>
+        <v>0.3379600371796133</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02806304538823932</v>
+        <v>0.3543200715849166</v>
       </c>
       <c r="E102" t="n">
         <v>13</v>
@@ -2418,13 +2418,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.7421539899858451</v>
+        <v>0.2258784532066063</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3947568373686787</v>
+        <v>0.64670487067055</v>
       </c>
       <c r="D103" t="n">
-        <v>0.9828895215304191</v>
+        <v>0.1274166761228435</v>
       </c>
       <c r="E103" t="n">
         <v>13</v>
@@ -2438,13 +2438,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.3541864550872698</v>
+        <v>0.2154698748497614</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.3918905096185347</v>
+        <v>0.3521883121733572</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1173447383697192</v>
+        <v>0.4323418129768815</v>
       </c>
       <c r="E104" t="n">
         <v>13</v>
@@ -2458,13 +2458,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.1466612482282914</v>
+        <v>0.2615223777084477</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.3207557021723859</v>
+        <v>0.2953659962453224</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.2732186230507623</v>
+        <v>0.4431116260462298</v>
       </c>
       <c r="E105" t="n">
         <v>13</v>
@@ -2478,13 +2478,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.7145350237150206</v>
+        <v>0.1041056940558706</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.8124958021886414</v>
+        <v>0.3352610386171946</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.3388986605707354</v>
+        <v>0.5606332673269346</v>
       </c>
       <c r="E106" t="n">
         <v>13</v>
@@ -2498,13 +2498,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.0742750472822325</v>
+        <v>0.3124370649749451</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2886345618595055</v>
+        <v>0.3372129432515048</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2273340818607876</v>
+        <v>0.35034999177355</v>
       </c>
       <c r="E107" t="n">
         <v>13</v>
@@ -2518,13 +2518,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.1716853355746759</v>
+        <v>0.2689361565365166</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.2808703009012651</v>
+        <v>0.3101421267736862</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.2103359732234313</v>
+        <v>0.4209217166897969</v>
       </c>
       <c r="E108" t="n">
         <v>13</v>
@@ -2538,13 +2538,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.5769572965969393</v>
+        <v>0.2063942589314445</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2685898999688295</v>
+        <v>0.4503459196126181</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2001456794845913</v>
+        <v>0.3432598214559373</v>
       </c>
       <c r="E109" t="n">
         <v>13</v>
@@ -2558,13 +2558,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.002417778722893005</v>
+        <v>0.4393892119944164</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2635048995472772</v>
+        <v>0.3521196669465964</v>
       </c>
       <c r="D110" t="n">
-        <v>0.2735801916282193</v>
+        <v>0.2084911210589874</v>
       </c>
       <c r="E110" t="n">
         <v>13</v>
@@ -2578,13 +2578,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.014433649351181</v>
+        <v>0.05992265741655912</v>
       </c>
       <c r="C111" t="n">
-        <v>-1.073450995986947</v>
+        <v>0.3234011398637308</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.4405001367783513</v>
+        <v>0.6166762027197102</v>
       </c>
       <c r="E111" t="n">
         <v>13</v>
@@ -2598,13 +2598,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.9638869254000828</v>
+        <v>0.104021088408458</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.6494611531307048</v>
+        <v>0.6304788219342125</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7235094920043567</v>
+        <v>0.2655000896573294</v>
       </c>
       <c r="E112" t="n">
         <v>13</v>
@@ -2618,13 +2618,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-0.03298382649756837</v>
+        <v>0.4326987789612249</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3077310301400158</v>
+        <v>0.4042682563809451</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6675703178562568</v>
+        <v>0.1630329646578299</v>
       </c>
       <c r="E113" t="n">
         <v>13</v>
@@ -2638,13 +2638,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.3768912131799478</v>
+        <v>0.2110294094048843</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.3982919642861499</v>
+        <v>0.359082053779317</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.09820665808876293</v>
+        <v>0.429888536815799</v>
       </c>
       <c r="E114" t="n">
         <v>13</v>
@@ -2658,13 +2658,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.7390199924012845</v>
+        <v>0.07100134178731662</v>
       </c>
       <c r="C115" t="n">
-        <v>-1.119105986724991</v>
+        <v>0.3157406009857475</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.4334400219368211</v>
+        <v>0.6132580572269356</v>
       </c>
       <c r="E115" t="n">
         <v>13</v>
@@ -2678,13 +2678,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.4275487532270682</v>
+        <v>0.1225610272630027</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.7963831615582183</v>
+        <v>0.2402759514406852</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.6785835247113208</v>
+        <v>0.6371630212963122</v>
       </c>
       <c r="E116" t="n">
         <v>13</v>
@@ -2698,13 +2698,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.6672465099680945</v>
+        <v>0.1572442986027891</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.4780623421271557</v>
+        <v>0.4707214322419477</v>
       </c>
       <c r="D117" t="n">
-        <v>0.2231406902332695</v>
+        <v>0.372034269155263</v>
       </c>
       <c r="E117" t="n">
         <v>13</v>
@@ -2718,13 +2718,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-0.295679663257418</v>
+        <v>0.2399285355714274</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.3220012902020065</v>
+        <v>0.3451703695487454</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.1139056953563133</v>
+        <v>0.4149010948798271</v>
       </c>
       <c r="E118" t="n">
         <v>13</v>
@@ -2738,13 +2738,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.3769607698625791</v>
+        <v>0.2111667197053478</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.3976269292872864</v>
+        <v>0.3593231282481314</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.09709361960291009</v>
+        <v>0.4295101520465208</v>
       </c>
       <c r="E119" t="n">
         <v>13</v>
@@ -2758,13 +2758,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01935174065597661</v>
+        <v>0.3566033015416669</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.08575693587896371</v>
+        <v>0.2824463671771406</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.2214742399645891</v>
+        <v>0.3609503312811923</v>
       </c>
       <c r="E120" t="n">
         <v>13</v>
@@ -2778,13 +2778,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.6816846784176265</v>
+        <v>0.1372064759913903</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.6090843928112633</v>
+        <v>0.4193061519831919</v>
       </c>
       <c r="D121" t="n">
-        <v>0.006248422129655401</v>
+        <v>0.4434873720254175</v>
       </c>
       <c r="E121" t="n">
         <v>13</v>
@@ -2798,13 +2798,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.5056191189291233</v>
+        <v>0.1322643273809952</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.7218442991387124</v>
+        <v>0.2970662928993801</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.4388162297699968</v>
+        <v>0.5706693797196249</v>
       </c>
       <c r="E122" t="n">
         <v>13</v>
@@ -2818,13 +2818,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.6548934700664477</v>
+        <v>0.1965734616132363</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.2354711845869897</v>
+        <v>0.5051197848878164</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3969332111360926</v>
+        <v>0.2983067534989474</v>
       </c>
       <c r="E123" t="n">
         <v>13</v>
@@ -2838,13 +2838,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.1764850736858233</v>
+        <v>0.2257154669138503</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.4367216378906563</v>
+        <v>0.2771634454706674</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.3916620408973628</v>
+        <v>0.4971210876154825</v>
       </c>
       <c r="E124" t="n">
         <v>13</v>
@@ -2858,13 +2858,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.403716706011804</v>
+        <v>0.2005992687599287</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.4303370786835956</v>
+        <v>0.3596825199885703</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.1114848604812673</v>
+        <v>0.4397182112515008</v>
       </c>
       <c r="E125" t="n">
         <v>13</v>
@@ -2878,13 +2878,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.376891223078368</v>
+        <v>0.211156407980902</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.3977154657307113</v>
+        <v>0.3592612088122412</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.09734724092085088</v>
+        <v>0.4295823832068568</v>
       </c>
       <c r="E126" t="n">
         <v>13</v>
@@ -2898,13 +2898,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.5411984590327541</v>
+        <v>0.1972507788389032</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.346643497381931</v>
+        <v>0.4456828435691674</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1992159662133752</v>
+        <v>0.3570663775919294</v>
       </c>
       <c r="E127" t="n">
         <v>13</v>
@@ -2918,13 +2918,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-0.3768912230784779</v>
+        <v>0.2111563684869147</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.3977156450135453</v>
+        <v>0.3592611527737011</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.09734750974804088</v>
+        <v>0.429582478739384</v>
       </c>
       <c r="E128" t="n">
         <v>13</v>
@@ -2938,13 +2938,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.6124986141169592</v>
+        <v>0.1051678892941952</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.8633304628232878</v>
+        <v>0.3262864238477802</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.3526977392854625</v>
+        <v>0.5685456868580244</v>
       </c>
       <c r="E129" t="n">
         <v>13</v>
@@ -2958,13 +2958,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.7073477627432877</v>
+        <v>0.1134683935811702</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.7659177564082138</v>
+        <v>0.4090910939391647</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.05417067593008047</v>
+        <v>0.4774405124796651</v>
       </c>
       <c r="E130" t="n">
         <v>13</v>
@@ -2978,13 +2978,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.379221222209744</v>
+        <v>0.2150224072396185</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.378656335385939</v>
+        <v>0.3652099376093087</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.07018973364602757</v>
+        <v>0.4197676551510728</v>
       </c>
       <c r="E131" t="n">
         <v>13</v>
@@ -2998,13 +2998,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.3234769464350901</v>
+        <v>0.2291466897270032</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.3506157449716822</v>
+        <v>0.3508166327518421</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1042229232653999</v>
+        <v>0.4200366775211548</v>
       </c>
       <c r="E132" t="n">
         <v>13</v>
@@ -3018,13 +3018,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-0.4398001377678759</v>
+        <v>0.223469013086897</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.2990904608918545</v>
+        <v>0.457142890409814</v>
       </c>
       <c r="D133" t="n">
-        <v>0.343037375865909</v>
+        <v>0.319388096503289</v>
       </c>
       <c r="E133" t="n">
         <v>13</v>
@@ -3038,13 +3038,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.5157293991616867</v>
+        <v>0.1134861226276399</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.8276576150505528</v>
+        <v>0.2710705869721943</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.5584355732530344</v>
+        <v>0.6154432904001657</v>
       </c>
       <c r="E134" t="n">
         <v>13</v>
@@ -3058,13 +3058,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.4794857056771648</v>
+        <v>0.1518612150091165</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.6547807620618296</v>
+        <v>0.4001079821814096</v>
       </c>
       <c r="D135" t="n">
-        <v>0.008219167989179821</v>
+        <v>0.4480308028094736</v>
       </c>
       <c r="E135" t="n">
         <v>13</v>
@@ -3078,13 +3078,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-0.4500866715923211</v>
+        <v>0.1394840644548425</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.7050117084906029</v>
+        <v>0.2890955350500473</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.4562834605664591</v>
+        <v>0.5714204004951099</v>
       </c>
       <c r="E136" t="n">
         <v>13</v>
@@ -3098,13 +3098,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.3768906858380537</v>
+        <v>0.2105207761735949</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.4006003358428982</v>
+        <v>0.3583642079823028</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1016485995153752</v>
+        <v>0.4311150158441024</v>
       </c>
       <c r="E137" t="n">
         <v>13</v>
@@ -3118,13 +3118,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-0.2969443980894094</v>
+        <v>0.179695980475217</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.5753468474844796</v>
+        <v>0.2928720002542529</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.3754642537811934</v>
+        <v>0.5274320192705299</v>
       </c>
       <c r="E138" t="n">
         <v>13</v>
@@ -3138,13 +3138,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.5866110142209092</v>
+        <v>0.1688739534256539</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.4689467025611286</v>
+        <v>0.4515767667819677</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1852740988790086</v>
+        <v>0.379549279792378</v>
       </c>
       <c r="E139" t="n">
         <v>13</v>
@@ -3158,13 +3158,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6614786510068005</v>
+        <v>0.6652002477809971</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5118315313507761</v>
+        <v>0.1841897131904922</v>
       </c>
       <c r="D140" t="n">
-        <v>0.09077288967280293</v>
+        <v>0.1506100390285111</v>
       </c>
       <c r="E140" t="n">
         <v>14</v>
@@ -3178,13 +3178,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.2405096357306074</v>
+        <v>0.3820257961020895</v>
       </c>
       <c r="C141" t="n">
-        <v>0.431631865907076</v>
+        <v>0.4577698394158998</v>
       </c>
       <c r="D141" t="n">
-        <v>0.5352391641464324</v>
+        <v>0.1602043644820104</v>
       </c>
       <c r="E141" t="n">
         <v>14</v>
@@ -3198,13 +3198,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.6955023970221437</v>
+        <v>0.744172894975911</v>
       </c>
       <c r="C142" t="n">
-        <v>0.962600720617058</v>
+        <v>0.1983165542890135</v>
       </c>
       <c r="D142" t="n">
-        <v>0.863640304768943</v>
+        <v>0.05751055073507536</v>
       </c>
       <c r="E142" t="n">
         <v>14</v>
@@ -3218,13 +3218,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.5553718273619033</v>
+        <v>0.2058674824882773</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.2892486276943018</v>
+        <v>0.4508004495564623</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2170295654236805</v>
+        <v>0.3433320679552601</v>
       </c>
       <c r="E143" t="n">
         <v>14</v>
@@ -3238,13 +3238,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.2639129803235597</v>
+        <v>0.3268303612769494</v>
       </c>
       <c r="C144" t="n">
-        <v>0.05882168964056739</v>
+        <v>0.4211435945124821</v>
       </c>
       <c r="D144" t="n">
-        <v>0.3220182995306444</v>
+        <v>0.2520260442105686</v>
       </c>
       <c r="E144" t="n">
         <v>14</v>
@@ -3258,13 +3258,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.183996585025693</v>
+        <v>0.1321221279695599</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5434750898297875</v>
+        <v>0.7717109197941808</v>
       </c>
       <c r="D145" t="n">
-        <v>1.223278545347037</v>
+        <v>0.09616695223625905</v>
       </c>
       <c r="E145" t="n">
         <v>14</v>
@@ -3278,13 +3278,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.7208990297057309</v>
+        <v>0.7615457050734654</v>
       </c>
       <c r="C146" t="n">
-        <v>1.110444519635491</v>
+        <v>0.1939307970338298</v>
       </c>
       <c r="D146" t="n">
-        <v>0.9717002772868427</v>
+        <v>0.04452349789270466</v>
       </c>
       <c r="E146" t="n">
         <v>14</v>
@@ -3298,13 +3298,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-0.08115648033398076</v>
+        <v>0.4094198684769867</v>
       </c>
       <c r="C147" t="n">
-        <v>0.2458806585834183</v>
+        <v>0.3801084153994322</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3103970178189948</v>
+        <v>0.2104717161235811</v>
       </c>
       <c r="E147" t="n">
         <v>14</v>
@@ -3318,13 +3318,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.016064587892496</v>
+        <v>0.8163207526963505</v>
       </c>
       <c r="C148" t="n">
-        <v>1.000609746652124</v>
+        <v>0.1212637459031015</v>
       </c>
       <c r="D148" t="n">
-        <v>0.313560806998694</v>
+        <v>0.0624155014005481</v>
       </c>
       <c r="E148" t="n">
         <v>14</v>
@@ -3338,13 +3338,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-1.147975976330322</v>
+        <v>0.1351068753637425</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.2113806917160539</v>
+        <v>0.5701538821010834</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4217652034719798</v>
+        <v>0.2947392425351743</v>
       </c>
       <c r="E149" t="n">
         <v>14</v>
@@ -3358,13 +3358,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.1001649145474511</v>
+        <v>0.4532140860074106</v>
       </c>
       <c r="C150" t="n">
-        <v>0.7439805747494236</v>
+        <v>0.461470814526301</v>
       </c>
       <c r="D150" t="n">
-        <v>1.033611651384451</v>
+        <v>0.08531509946628826</v>
       </c>
       <c r="E150" t="n">
         <v>14</v>
@@ -3378,13 +3378,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.1852281685955833</v>
+        <v>0.4744757157153778</v>
       </c>
       <c r="C151" t="n">
-        <v>0.195500129473948</v>
+        <v>0.2668225885703333</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1303810946150334</v>
+        <v>0.2587016957142888</v>
       </c>
       <c r="E151" t="n">
         <v>14</v>
@@ -3398,13 +3398,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.1502174748822327</v>
+        <v>0.5630929961531753</v>
       </c>
       <c r="C152" t="n">
-        <v>1.067192503843587</v>
+        <v>0.3724585039962374</v>
       </c>
       <c r="D152" t="n">
-        <v>0.9359915736748204</v>
+        <v>0.06444849985058726</v>
       </c>
       <c r="E152" t="n">
         <v>14</v>
@@ -3418,13 +3418,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>-0.6237315805146683</v>
+        <v>0.2789027365748386</v>
       </c>
       <c r="C153" t="n">
-        <v>0.6856480199298888</v>
+        <v>0.5721663650554418</v>
       </c>
       <c r="D153" t="n">
-        <v>0.5289586714916336</v>
+        <v>0.1489308983697194</v>
       </c>
       <c r="E153" t="n">
         <v>14</v>
@@ -3438,13 +3438,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.4926812613005612</v>
+        <v>0.6371895295909472</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5716969188321692</v>
+        <v>0.2388439092392953</v>
       </c>
       <c r="D154" t="n">
-        <v>0.4623696494214302</v>
+        <v>0.1239665611697574</v>
       </c>
       <c r="E154" t="n">
         <v>14</v>
@@ -3458,13 +3458,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>-0.1664973291432197</v>
+        <v>0.41799917640333</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5975167815221865</v>
+        <v>0.4837608472375597</v>
       </c>
       <c r="D155" t="n">
-        <v>1.038604350910582</v>
+        <v>0.09823997635911039</v>
       </c>
       <c r="E155" t="n">
         <v>14</v>
@@ -3478,13 +3478,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.5499767596300696</v>
+        <v>0.2503670661124221</v>
       </c>
       <c r="C156" t="n">
-        <v>0.01479922979958959</v>
+        <v>0.516442454135331</v>
       </c>
       <c r="D156" t="n">
-        <v>0.5276368930879727</v>
+        <v>0.2331904797522468</v>
       </c>
       <c r="E156" t="n">
         <v>14</v>
@@ -3498,13 +3498,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.1037133931173813</v>
+        <v>0.3876837846706129</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.03651872035784898</v>
+        <v>0.2665999392662379</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.2386944278561872</v>
+        <v>0.3457162760631492</v>
       </c>
       <c r="E157" t="n">
         <v>14</v>
@@ -3518,13 +3518,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.182427466514637</v>
+        <v>0.851226896483648</v>
       </c>
       <c r="C158" t="n">
-        <v>1.055781769443767</v>
+        <v>0.09583813336545056</v>
       </c>
       <c r="D158" t="n">
-        <v>0.3057455448566597</v>
+        <v>0.05293497015090165</v>
       </c>
       <c r="E158" t="n">
         <v>14</v>
@@ -3538,13 +3538,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.237508752425373</v>
+        <v>0.5697885184008128</v>
       </c>
       <c r="C159" t="n">
-        <v>0.650620385985787</v>
+        <v>0.3157379846999382</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5531276134007606</v>
+        <v>0.1144734968992492</v>
       </c>
       <c r="E159" t="n">
         <v>14</v>
@@ -3558,13 +3558,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.625495380177131</v>
+        <v>0.7128208255105104</v>
       </c>
       <c r="C160" t="n">
-        <v>0.8564974679755341</v>
+        <v>0.2062425185830525</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4999533753905713</v>
+        <v>0.08093665590643721</v>
       </c>
       <c r="E160" t="n">
         <v>14</v>
@@ -3578,13 +3578,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.02850346284609212</v>
+        <v>0.416850547144867</v>
       </c>
       <c r="C161" t="n">
-        <v>0.1909213959070861</v>
+        <v>0.3498494753140199</v>
       </c>
       <c r="D161" t="n">
-        <v>0.1982652623569895</v>
+        <v>0.2332999775411128</v>
       </c>
       <c r="E161" t="n">
         <v>14</v>
@@ -3598,13 +3598,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.5197988250225301</v>
+        <v>0.2485021985287336</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.05157907447868154</v>
+        <v>0.4963503820360974</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4600320383881575</v>
+        <v>0.2551474194351691</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
@@ -3618,13 +3618,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.4674175662731733</v>
+        <v>0.1726774724626126</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.5384808052982918</v>
+        <v>0.4021707994681357</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03632747821273448</v>
+        <v>0.4251517280692518</v>
       </c>
       <c r="E163" t="n">
         <v>14</v>
@@ -3638,13 +3638,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.1592299322931151</v>
+        <v>0.2969576879538293</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.1806530921803153</v>
+        <v>0.3422507096976111</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.0186991534467304</v>
+        <v>0.3607916023485596</v>
       </c>
       <c r="E164" t="n">
         <v>14</v>
@@ -3658,13 +3658,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.27352755831569</v>
+        <v>0.3277982777361144</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.2763259299785636</v>
+        <v>0.2056096648522464</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.5053278011171031</v>
+        <v>0.4665920574116392</v>
       </c>
       <c r="E165" t="n">
         <v>14</v>
@@ -3678,13 +3678,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.1829166196854924</v>
+        <v>0.5784268506775357</v>
       </c>
       <c r="C166" t="n">
-        <v>1.124199521726221</v>
+        <v>0.3680415450608259</v>
       </c>
       <c r="D166" t="n">
-        <v>1.104953118798033</v>
+        <v>0.05353160426163832</v>
       </c>
       <c r="E166" t="n">
         <v>14</v>
@@ -3698,13 +3698,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7724643289683588</v>
+        <v>0.7568491848812404</v>
       </c>
       <c r="C167" t="n">
-        <v>0.9077919620586598</v>
+        <v>0.1739600717029542</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5748819046598683</v>
+        <v>0.06919074341580535</v>
       </c>
       <c r="E167" t="n">
         <v>14</v>
@@ -3718,13 +3718,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.08314690108016992</v>
+        <v>0.3694212526406807</v>
       </c>
       <c r="C168" t="n">
-        <v>0.04070450904601425</v>
+        <v>0.3530155889078463</v>
       </c>
       <c r="D168" t="n">
-        <v>0.1454852690403559</v>
+        <v>0.2775631584514732</v>
       </c>
       <c r="E168" t="n">
         <v>14</v>
@@ -3738,13 +3738,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.2759954243866676</v>
+        <v>0.392049811612496</v>
       </c>
       <c r="C169" t="n">
-        <v>1.050637505139101</v>
+        <v>0.5363157515185022</v>
       </c>
       <c r="D169" t="n">
-        <v>1.077563225786685</v>
+        <v>0.07163443686900177</v>
       </c>
       <c r="E169" t="n">
         <v>14</v>
@@ -3758,13 +3758,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>-0.1805497330489178</v>
+        <v>0.2762617237047317</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.2442005636717935</v>
+        <v>0.3428046493706169</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.03850534520705446</v>
+        <v>0.3809336269246513</v>
       </c>
       <c r="E170" t="n">
         <v>14</v>
@@ -3778,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>-0.4244968329280968</v>
+        <v>0.2264499790113861</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.2870124363792384</v>
+        <v>0.4196584994348606</v>
       </c>
       <c r="D171" t="n">
-        <v>0.1595376782483307</v>
+        <v>0.3538915215537534</v>
       </c>
       <c r="E171" t="n">
         <v>14</v>
@@ -3798,13 +3798,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>-0.0591198275931244</v>
+        <v>0.4500159810293711</v>
       </c>
       <c r="C172" t="n">
-        <v>0.5193466537152266</v>
+        <v>0.4246227899742815</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7528374202809431</v>
+        <v>0.1253612289963473</v>
       </c>
       <c r="E172" t="n">
         <v>14</v>
@@ -3818,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>0.4452531533693342</v>
+        <v>0.6215552659295869</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5578562315064067</v>
+        <v>0.2510968893358659</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4620582115607146</v>
+        <v>0.1273478447345472</v>
       </c>
       <c r="E173" t="n">
         <v>14</v>
@@ -3838,13 +3838,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>0.01084355856547031</v>
+        <v>0.3891157620436572</v>
       </c>
       <c r="C174" t="n">
-        <v>0.02830858913018863</v>
+        <v>0.3587366941692199</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3689356493610111</v>
+        <v>0.2521475437871228</v>
       </c>
       <c r="E174" t="n">
         <v>14</v>
@@ -3858,13 +3858,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>0.9530109473550781</v>
+        <v>0.7830581491594322</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8093359236107905</v>
+        <v>0.1255905385835128</v>
       </c>
       <c r="D175" t="n">
-        <v>0.03282513790097917</v>
+        <v>0.0913513122570552</v>
       </c>
       <c r="E175" t="n">
         <v>14</v>
@@ -3878,13 +3878,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>0.6871348974511446</v>
+        <v>0.7563827815156079</v>
       </c>
       <c r="C176" t="n">
-        <v>1.19132189846568</v>
+        <v>0.2039306324025574</v>
       </c>
       <c r="D176" t="n">
-        <v>1.038504579717273</v>
+        <v>0.03968658608183474</v>
       </c>
       <c r="E176" t="n">
         <v>14</v>
@@ -3898,13 +3898,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>-0.9768799559407551</v>
+        <v>0.1656289655431852</v>
       </c>
       <c r="C177" t="n">
-        <v>0.116568200522482</v>
+        <v>0.6727709835684884</v>
       </c>
       <c r="D177" t="n">
-        <v>0.9344570238761155</v>
+        <v>0.1616000508883267</v>
       </c>
       <c r="E177" t="n">
         <v>14</v>
@@ -3918,13 +3918,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.6915799008545196</v>
+        <v>0.2362624499434257</v>
       </c>
       <c r="C178" t="n">
-        <v>0.2954319312771024</v>
+        <v>0.6133788397156607</v>
       </c>
       <c r="D178" t="n">
-        <v>0.8603946132027979</v>
+        <v>0.1503587103409135</v>
       </c>
       <c r="E178" t="n">
         <v>14</v>
@@ -3938,13 +3938,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>0.01624792569752936</v>
+        <v>0.5063096421107375</v>
       </c>
       <c r="C179" t="n">
-        <v>0.7475195503928941</v>
+        <v>0.3605419456546489</v>
       </c>
       <c r="D179" t="n">
-        <v>0.2425093931030577</v>
+        <v>0.1331484122346136</v>
       </c>
       <c r="E179" t="n">
         <v>14</v>
@@ -3958,13 +3958,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0.2943922612482721</v>
+        <v>0.6119451616354237</v>
       </c>
       <c r="C180" t="n">
-        <v>0.9242777504928174</v>
+        <v>0.3047508826106529</v>
       </c>
       <c r="D180" t="n">
-        <v>0.5976750674945341</v>
+        <v>0.08330395575392341</v>
       </c>
       <c r="E180" t="n">
         <v>14</v>
@@ -3978,13 +3978,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>-0.3796499296414304</v>
+        <v>0.1779021087651962</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.5463644335156665</v>
+        <v>0.3125998247640371</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.3194141091650051</v>
+        <v>0.5094980664707668</v>
       </c>
       <c r="E181" t="n">
         <v>14</v>
@@ -3998,13 +3998,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>0.8105774195249524</v>
+        <v>0.7598576091877718</v>
       </c>
       <c r="C182" t="n">
-        <v>0.8370389936982904</v>
+        <v>0.1690610256766861</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7123983937666173</v>
+        <v>0.07108136513554196</v>
       </c>
       <c r="E182" t="n">
         <v>14</v>
@@ -4018,13 +4018,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5571570165655988</v>
+        <v>0.7184394404535408</v>
       </c>
       <c r="C183" t="n">
-        <v>1.246133727316808</v>
+        <v>0.2407277925644737</v>
       </c>
       <c r="D183" t="n">
-        <v>1.032941975019891</v>
+        <v>0.04083276698198521</v>
       </c>
       <c r="E183" t="n">
         <v>14</v>
@@ -4038,13 +4038,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>-0.3104550118686192</v>
+        <v>0.3030100836190828</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.00662994660776578</v>
+        <v>0.4396062553756971</v>
       </c>
       <c r="D184" t="n">
-        <v>0.3833038709342839</v>
+        <v>0.2573836610052201</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
@@ -4058,13 +4058,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>-0.5212417900865991</v>
+        <v>0.1722443647818155</v>
       </c>
       <c r="C185" t="n">
-        <v>-0.5019467629527843</v>
+        <v>0.391381260461615</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.03403237740421275</v>
+        <v>0.4363743747565692</v>
       </c>
       <c r="E185" t="n">
         <v>14</v>
@@ -4078,13 +4078,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.3656377117859094</v>
+        <v>0.2151531835466157</v>
       </c>
       <c r="C186" t="n">
-        <v>-0.3864601820167834</v>
+        <v>0.3577968853907292</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.09734440031052427</v>
+        <v>0.4270499310626549</v>
       </c>
       <c r="E186" t="n">
         <v>15</v>
@@ -4098,13 +4098,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.952087080464368</v>
+        <v>0.8241130863267248</v>
       </c>
       <c r="C187" t="n">
-        <v>1.251325667811312</v>
+        <v>0.1399163218554426</v>
       </c>
       <c r="D187" t="n">
-        <v>0.826018595371365</v>
+        <v>0.03597059181783262</v>
       </c>
       <c r="E187" t="n">
         <v>15</v>
@@ -4118,13 +4118,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.8579328645797519</v>
+        <v>0.7962752422313906</v>
       </c>
       <c r="C188" t="n">
-        <v>1.134884896943563</v>
+        <v>0.1479119294399362</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3080293636943203</v>
+        <v>0.05581282832867311</v>
       </c>
       <c r="E188" t="n">
         <v>15</v>
@@ -4138,13 +4138,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>-0.5401318587693941</v>
+        <v>0.3083401245613863</v>
       </c>
       <c r="C189" t="n">
-        <v>0.6151212084555332</v>
+        <v>0.5225157948284707</v>
       </c>
       <c r="D189" t="n">
-        <v>0.3579608289754289</v>
+        <v>0.169144080610143</v>
       </c>
       <c r="E189" t="n">
         <v>15</v>
@@ -4158,13 +4158,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.6615528084700828</v>
+        <v>0.7400097284235472</v>
       </c>
       <c r="C190" t="n">
-        <v>1.060053776202281</v>
+        <v>0.2035881764686591</v>
       </c>
       <c r="D190" t="n">
-        <v>0.7085425541588615</v>
+        <v>0.05640209510779383</v>
       </c>
       <c r="E190" t="n">
         <v>15</v>
@@ -4178,13 +4178,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01109492576296078</v>
+        <v>0.479286277245908</v>
       </c>
       <c r="C191" t="n">
-        <v>0.5581229881378815</v>
+        <v>0.3858428026559345</v>
       </c>
       <c r="D191" t="n">
-        <v>0.5391195139881725</v>
+        <v>0.1348709200981577</v>
       </c>
       <c r="E191" t="n">
         <v>15</v>
@@ -4198,13 +4198,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>-0.5975941700827818</v>
+        <v>0.2814637377165665</v>
       </c>
       <c r="C192" t="n">
-        <v>0.2354485416694114</v>
+        <v>0.4632563614169561</v>
       </c>
       <c r="D192" t="n">
-        <v>0.1082361591577986</v>
+        <v>0.2552799008664776</v>
       </c>
       <c r="E192" t="n">
         <v>15</v>
@@ -4218,13 +4218,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0189805961373759</v>
+        <v>0.50901187651381</v>
       </c>
       <c r="C193" t="n">
-        <v>0.9957985480163926</v>
+        <v>0.4118367964337987</v>
       </c>
       <c r="D193" t="n">
-        <v>0.8149101540219701</v>
+        <v>0.07915132705239156</v>
       </c>
       <c r="E193" t="n">
         <v>15</v>
@@ -4238,13 +4238,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>0.8308127338685507</v>
+        <v>0.7943337259514762</v>
       </c>
       <c r="C194" t="n">
-        <v>1.22254913449557</v>
+        <v>0.1647316807679811</v>
       </c>
       <c r="D194" t="n">
-        <v>0.7860017378071941</v>
+        <v>0.04093459328054264</v>
       </c>
       <c r="E194" t="n">
         <v>15</v>
@@ -4258,13 +4258,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.7027351045615855</v>
+        <v>0.19493833033952</v>
       </c>
       <c r="C195" t="n">
-        <v>-0.1550630527891137</v>
+        <v>0.5796548691582071</v>
       </c>
       <c r="D195" t="n">
-        <v>0.7306802831552612</v>
+        <v>0.225406800502273</v>
       </c>
       <c r="E195" t="n">
         <v>15</v>
@@ -4278,13 +4278,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.3184103000842094</v>
+        <v>0.5959371539655793</v>
       </c>
       <c r="C196" t="n">
-        <v>0.6422488279144934</v>
+        <v>0.2807024383959681</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3692111569988094</v>
+        <v>0.1233604076384526</v>
       </c>
       <c r="E196" t="n">
         <v>15</v>
@@ -4298,13 +4298,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.8856936440213252</v>
+        <v>0.7998520586801048</v>
       </c>
       <c r="C197" t="n">
-        <v>1.076928625689207</v>
+        <v>0.1539407269859102</v>
       </c>
       <c r="D197" t="n">
-        <v>0.84098162075753</v>
+        <v>0.04620721433398487</v>
       </c>
       <c r="E197" t="n">
         <v>15</v>
@@ -4318,13 +4318,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.6581985587006378</v>
+        <v>0.6944284009453081</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6724357916755893</v>
+        <v>0.1892260070622994</v>
       </c>
       <c r="D198" t="n">
-        <v>0.2071597356867896</v>
+        <v>0.1163455919923926</v>
       </c>
       <c r="E198" t="n">
         <v>15</v>
@@ -4338,13 +4338,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.657394702099267</v>
+        <v>0.6952991555178089</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6545779542789992</v>
+        <v>0.2009248118363781</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5381610878020217</v>
+        <v>0.1037760326458131</v>
       </c>
       <c r="E199" t="n">
         <v>15</v>
@@ -4358,13 +4358,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4034585125447662</v>
+        <v>0.6508292692034285</v>
       </c>
       <c r="C200" t="n">
-        <v>0.9338180858180959</v>
+        <v>0.2777741715547171</v>
       </c>
       <c r="D200" t="n">
-        <v>0.7563664378181031</v>
+        <v>0.07139655924185417</v>
       </c>
       <c r="E200" t="n">
         <v>15</v>
@@ -4378,13 +4378,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.9830573692947486</v>
+        <v>0.167831460935338</v>
       </c>
       <c r="C201" t="n">
-        <v>1.193421428025747</v>
+        <v>0.7805753197468897</v>
       </c>
       <c r="D201" t="n">
-        <v>1.574482127932705</v>
+        <v>0.05159321931777249</v>
       </c>
       <c r="E201" t="n">
         <v>15</v>
@@ -4398,13 +4398,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.9769509449097113</v>
+        <v>0.7792003655935279</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7273328542973468</v>
+        <v>0.1082932406603316</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.390866396268321</v>
+        <v>0.1125063937461403</v>
       </c>
       <c r="E202" t="n">
         <v>15</v>
@@ -4418,13 +4418,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.3280441853588171</v>
+        <v>0.5248517749864721</v>
       </c>
       <c r="C203" t="n">
-        <v>0.2600572230899204</v>
+        <v>0.2646654465910122</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2014894013405404</v>
+        <v>0.2104827784225157</v>
       </c>
       <c r="E203" t="n">
         <v>15</v>
@@ -4438,13 +4438,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.08509287403995941</v>
+        <v>0.5265017959274976</v>
       </c>
       <c r="C204" t="n">
-        <v>0.7906716029313935</v>
+        <v>0.3908483217843673</v>
       </c>
       <c r="D204" t="n">
-        <v>0.9431508394113249</v>
+        <v>0.08264988228813508</v>
       </c>
       <c r="E204" t="n">
         <v>15</v>
@@ -4458,13 +4458,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.4262105749498787</v>
+        <v>0.2076037132601523</v>
       </c>
       <c r="C205" t="n">
-        <v>-0.3829247854370987</v>
+        <v>0.3826508536468564</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.01703377286351661</v>
+        <v>0.4097454330929911</v>
       </c>
       <c r="E205" t="n">
         <v>15</v>
@@ -4478,13 +4478,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.4291401930427081</v>
+        <v>0.3073564903485531</v>
       </c>
       <c r="C206" t="n">
-        <v>0.2871039835362775</v>
+        <v>0.5369540524359561</v>
       </c>
       <c r="D206" t="n">
-        <v>0.8030307639133089</v>
+        <v>0.1556894572154909</v>
       </c>
       <c r="E206" t="n">
         <v>15</v>
@@ -4498,13 +4498,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.3757898850816938</v>
+        <v>0.2116414049328401</v>
       </c>
       <c r="C207" t="n">
-        <v>-0.396177876462324</v>
+        <v>0.359279053213137</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.09657693574711051</v>
+        <v>0.429079541854023</v>
       </c>
       <c r="E207" t="n">
         <v>15</v>
@@ -4518,13 +4518,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.005679694882398667</v>
+        <v>0.4851527307108778</v>
       </c>
       <c r="C208" t="n">
-        <v>0.6737857667458752</v>
+        <v>0.4079814691091427</v>
       </c>
       <c r="D208" t="n">
-        <v>0.7536235954861945</v>
+        <v>0.1068658001799795</v>
       </c>
       <c r="E208" t="n">
         <v>15</v>
@@ -4538,13 +4538,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0.3491052792153446</v>
+        <v>0.4489432157634813</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.005251518508296027</v>
+        <v>0.1758480044157918</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.7248508267859249</v>
+        <v>0.3752087798207267</v>
       </c>
       <c r="E209" t="n">
         <v>15</v>
@@ -4558,13 +4558,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>-0.5122986914277221</v>
+        <v>0.1591308380996166</v>
       </c>
       <c r="C210" t="n">
-        <v>-0.5754903859557399</v>
+        <v>0.3509554252439717</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.20541973862336</v>
+        <v>0.4899137366564115</v>
       </c>
       <c r="E210" t="n">
         <v>15</v>
@@ -4578,13 +4578,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.3769373860429053</v>
+        <v>0.2053045661067857</v>
       </c>
       <c r="C211" t="n">
-        <v>-0.4241690277578463</v>
+        <v>0.3508470890475949</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.1375953514903724</v>
+        <v>0.443848344845619</v>
       </c>
       <c r="E211" t="n">
         <v>15</v>
@@ -4598,13 +4598,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.2988278402473289</v>
+        <v>0.5778101524482423</v>
       </c>
       <c r="C212" t="n">
-        <v>0.5549572434602749</v>
+        <v>0.2819769751772759</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3201361259752017</v>
+        <v>0.1402128723744819</v>
       </c>
       <c r="E212" t="n">
         <v>15</v>
@@ -4618,13 +4618,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.3552515461737317</v>
+        <v>0.6426777374016962</v>
       </c>
       <c r="C213" t="n">
-        <v>1.078302755026227</v>
+        <v>0.3043975047967571</v>
       </c>
       <c r="D213" t="n">
-        <v>1.045757711238079</v>
+        <v>0.05292475780154638</v>
       </c>
       <c r="E213" t="n">
         <v>15</v>
@@ -4638,13 +4638,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.06950813554196067</v>
+        <v>0.5008771548770184</v>
       </c>
       <c r="C214" t="n">
-        <v>0.5709811074497547</v>
+        <v>0.3686056831954804</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5493201639736243</v>
+        <v>0.1305171619275014</v>
       </c>
       <c r="E214" t="n">
         <v>15</v>
@@ -4658,13 +4658,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>0.5436930341386308</v>
+        <v>0.6456637516252841</v>
       </c>
       <c r="C215" t="n">
-        <v>0.5383274127059089</v>
+        <v>0.2002605747211478</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.04238416080843969</v>
+        <v>0.1540756736535681</v>
       </c>
       <c r="E215" t="n">
         <v>15</v>
@@ -4678,13 +4678,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.04889163449853184</v>
+        <v>0.4584936345615134</v>
       </c>
       <c r="C216" t="n">
-        <v>0.5720993628506365</v>
+        <v>0.4189974278555503</v>
       </c>
       <c r="D216" t="n">
-        <v>0.7044568276722921</v>
+        <v>0.1225089375829363</v>
       </c>
       <c r="E216" t="n">
         <v>15</v>
@@ -4698,13 +4698,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>-0.805443884524246</v>
+        <v>0.1821890252013249</v>
       </c>
       <c r="C217" t="n">
-        <v>-0.2037740454167621</v>
+        <v>0.4969040674275695</v>
       </c>
       <c r="D217" t="n">
-        <v>0.2681976719268231</v>
+        <v>0.3209069073711057</v>
       </c>
       <c r="E217" t="n">
         <v>15</v>
@@ -4718,13 +4718,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>0.7073702058429405</v>
+        <v>0.7178612157369488</v>
       </c>
       <c r="C218" t="n">
-        <v>0.718664983570272</v>
+        <v>0.1697485712852592</v>
       </c>
       <c r="D218" t="n">
-        <v>0.03081767051784025</v>
+        <v>0.1123902129777918</v>
       </c>
       <c r="E218" t="n">
         <v>15</v>
@@ -4738,13 +4738,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>0.8460492885615449</v>
+        <v>0.8001617742998705</v>
       </c>
       <c r="C219" t="n">
-        <v>1.280764885087205</v>
+        <v>0.1590056337584972</v>
       </c>
       <c r="D219" t="n">
-        <v>0.661837132850564</v>
+        <v>0.04083259194163263</v>
       </c>
       <c r="E219" t="n">
         <v>15</v>
@@ -4758,13 +4758,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>-0.3768908853482012</v>
+        <v>0.2111565270897286</v>
       </c>
       <c r="C220" t="n">
-        <v>-0.3977151280005135</v>
+        <v>0.3592611650308298</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.09734724092080085</v>
+        <v>0.4295823078794414</v>
       </c>
       <c r="E220" t="n">
         <v>16</v>
@@ -4778,13 +4778,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.3794711840397803</v>
+        <v>0.1950270346939426</v>
       </c>
       <c r="C221" t="n">
-        <v>-0.4691748826557324</v>
+        <v>0.3379524986704647</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.2001840036955136</v>
+        <v>0.4670204666355927</v>
       </c>
       <c r="E221" t="n">
         <v>16</v>
@@ -4798,13 +4798,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.361948560800895</v>
+        <v>0.1989138747059632</v>
       </c>
       <c r="C222" t="n">
-        <v>-0.4610504746934578</v>
+        <v>0.3366567408300269</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1968521471877656</v>
+        <v>0.4644293844640101</v>
       </c>
       <c r="E222" t="n">
         <v>16</v>
@@ -4818,13 +4818,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>-0.3768912230723263</v>
+        <v>0.2100342390461586</v>
       </c>
       <c r="C223" t="n">
-        <v>-0.4028063693682182</v>
+        <v>0.3576692952902625</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1049788351255078</v>
+        <v>0.4322964656635788</v>
       </c>
       <c r="E223" t="n">
         <v>16</v>
@@ -4838,13 +4838,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>-0.5510345282211582</v>
+        <v>0.05963203024439818</v>
       </c>
       <c r="C224" t="n">
-        <v>-1.206127583113739</v>
+        <v>0.1665910343523727</v>
       </c>
       <c r="D224" t="n">
-        <v>-1.08945672979797</v>
+        <v>0.7737769354032289</v>
       </c>
       <c r="E224" t="n">
         <v>16</v>
@@ -4858,13 +4858,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.376891223078368</v>
+        <v>0.211156407980902</v>
       </c>
       <c r="C225" t="n">
-        <v>-0.397715465730711</v>
+        <v>0.3592612088122411</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.09734724092085052</v>
+        <v>0.4295823832068565</v>
       </c>
       <c r="E225" t="n">
         <v>16</v>
@@ -4878,13 +4878,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.4427238105834452</v>
+        <v>0.09009091932750231</v>
       </c>
       <c r="C226" t="n">
-        <v>-1.012222115384359</v>
+        <v>0.2236018716491956</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.7646276487085422</v>
+        <v>0.6863072090233021</v>
       </c>
       <c r="E226" t="n">
         <v>16</v>
@@ -4898,13 +4898,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.3681050845332994</v>
+        <v>0.1622126453694643</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.6213765641806088</v>
+        <v>0.2799647035863874</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.4686198407457178</v>
+        <v>0.5578226510441485</v>
       </c>
       <c r="E227" t="n">
         <v>16</v>
@@ -4918,13 +4918,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>-0.3768912230783681</v>
+        <v>0.211156407980902</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.397715465730711</v>
+        <v>0.3592612088122411</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.09734724092085041</v>
+        <v>0.4295823832068565</v>
       </c>
       <c r="E228" t="n">
         <v>16</v>
@@ -4938,13 +4938,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>-0.3768912230784488</v>
+        <v>0.2111564079808494</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.3977154657309018</v>
+        <v>0.3592612088122192</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.09734724092100609</v>
+        <v>0.4295823832069313</v>
       </c>
       <c r="E229" t="n">
         <v>16</v>
@@ -4958,13 +4958,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.3768912242488108</v>
+        <v>0.2097344240406464</v>
       </c>
       <c r="C230" t="n">
-        <v>-0.4041655082161782</v>
+        <v>0.3572448772804492</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.1070118228194073</v>
+        <v>0.4330206986789042</v>
       </c>
       <c r="E230" t="n">
         <v>16</v>
@@ -4978,13 +4978,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>-0.3768912230784288</v>
+        <v>0.211156407980894</v>
       </c>
       <c r="C231" t="n">
-        <v>-0.3977154657307111</v>
+        <v>0.3592612088122694</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.09734724092075296</v>
+        <v>0.4295823832068364</v>
       </c>
       <c r="E231" t="n">
         <v>16</v>
@@ -4998,13 +4998,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.3768912230771109</v>
+        <v>0.2111564079813483</v>
       </c>
       <c r="C232" t="n">
-        <v>-0.3977154657294409</v>
+        <v>0.3592612088120825</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.09734724092082957</v>
+        <v>0.4295823832065691</v>
       </c>
       <c r="E232" t="n">
         <v>16</v>
@@ -5018,13 +5018,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>-0.3762840644398417</v>
+        <v>0.2113706083054455</v>
       </c>
       <c r="C233" t="n">
-        <v>-0.3971083490641549</v>
+        <v>0.359182469469627</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.09734730383745524</v>
+        <v>0.4294469222249273</v>
       </c>
       <c r="E233" t="n">
         <v>16</v>
@@ -5038,13 +5038,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.9163422427164432</v>
+        <v>0.05830013971103346</v>
       </c>
       <c r="C234" t="n">
-        <v>-1.151594714078153</v>
+        <v>0.3053484307029583</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.5000636819960931</v>
+        <v>0.6363514295860083</v>
       </c>
       <c r="E234" t="n">
         <v>16</v>
@@ -5058,13 +5058,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>-0.3768912389338784</v>
+        <v>0.2111564058836032</v>
       </c>
       <c r="C235" t="n">
-        <v>-0.3977154657307116</v>
+        <v>0.3592612161748637</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.09734721547756367</v>
+        <v>0.429582377941533</v>
       </c>
       <c r="E235" t="n">
         <v>16</v>
@@ -5078,13 +5078,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.3768912247103183</v>
+        <v>0.2111564077650369</v>
       </c>
       <c r="C236" t="n">
-        <v>-0.397715465730711</v>
+        <v>0.3592612095704789</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.09734723830002462</v>
+        <v>0.4295823826644843</v>
       </c>
       <c r="E236" t="n">
         <v>16</v>
@@ -5098,13 +5098,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.3771306060923905</v>
+        <v>0.2111247416766713</v>
       </c>
       <c r="C237" t="n">
-        <v>-0.3977154657307055</v>
+        <v>0.3593724389436353</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.09696280444135948</v>
+        <v>0.4295028193796933</v>
       </c>
       <c r="E237" t="n">
         <v>16</v>
@@ -5118,13 +5118,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.3768912230767575</v>
+        <v>0.2111564079814701</v>
       </c>
       <c r="C238" t="n">
-        <v>-0.3977154657291005</v>
+        <v>0.3592612088120324</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.09734724092085052</v>
+        <v>0.4295823832064974</v>
       </c>
       <c r="E238" t="n">
         <v>17</v>
@@ -5138,13 +5138,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.376891223078368</v>
+        <v>0.211156407980902</v>
       </c>
       <c r="C239" t="n">
-        <v>-0.397715465730711</v>
+        <v>0.3592612088122411</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.09734724092085052</v>
+        <v>0.4295823832068565</v>
       </c>
       <c r="E239" t="n">
         <v>17</v>
@@ -5158,13 +5158,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.182732282513644</v>
+        <v>0.0481055178807091</v>
       </c>
       <c r="C240" t="n">
-        <v>-1.282359735889784</v>
+        <v>0.5110175687140576</v>
       </c>
       <c r="D240" t="n">
-        <v>0.162125268058756</v>
+        <v>0.4408769134052333</v>
       </c>
       <c r="E240" t="n">
         <v>17</v>
@@ -5178,13 +5178,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>-0.4136076936779501</v>
+        <v>0.1337722756455026</v>
       </c>
       <c r="C241" t="n">
-        <v>-0.7469095240870175</v>
+        <v>0.2650150033946281</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.5556987638456142</v>
+        <v>0.6012127209598693</v>
       </c>
       <c r="E241" t="n">
         <v>17</v>
@@ -5198,13 +5198,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.5925963442270361</v>
+        <v>0.1493187612286615</v>
       </c>
       <c r="C242" t="n">
-        <v>-0.5875336869518837</v>
+        <v>0.3861068799237267</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.09121164335614741</v>
+        <v>0.4645743588476117</v>
       </c>
       <c r="E242" t="n">
         <v>17</v>
@@ -5218,13 +5218,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.4764423504764442</v>
+        <v>0.06098881858217963</v>
       </c>
       <c r="C243" t="n">
-        <v>-1.199135671837763</v>
+        <v>0.1481127175169553</v>
       </c>
       <c r="D243" t="n">
-        <v>-1.191622909345387</v>
+        <v>0.790898463900865</v>
       </c>
       <c r="E243" t="n">
         <v>17</v>
@@ -5238,13 +5238,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.7955127581585386</v>
+        <v>0.1426200205043205</v>
       </c>
       <c r="C244" t="n">
-        <v>-0.4758180028990119</v>
+        <v>0.5645741299494965</v>
       </c>
       <c r="D244" t="n">
-        <v>0.5595934165920485</v>
+        <v>0.2928058495461831</v>
       </c>
       <c r="E244" t="n">
         <v>17</v>
@@ -5258,13 +5258,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.9572925543602651</v>
+        <v>0.05126556747292756</v>
       </c>
       <c r="C245" t="n">
-        <v>-1.232486793233205</v>
+        <v>0.302262456033066</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.5190170101088684</v>
+        <v>0.6464719764940063</v>
       </c>
       <c r="E245" t="n">
         <v>17</v>
@@ -5278,13 +5278,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>-0.3765075052931885</v>
+        <v>0.2110001662099851</v>
       </c>
       <c r="C246" t="n">
-        <v>-0.3986547407808146</v>
+        <v>0.3587982313581876</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.09932975063753763</v>
+        <v>0.4302016024318274</v>
       </c>
       <c r="E246" t="n">
         <v>17</v>
@@ -5298,13 +5298,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.3711433002441145</v>
+        <v>0.2131383899730315</v>
       </c>
       <c r="C247" t="n">
-        <v>-0.3922038173521796</v>
+        <v>0.3584409543767155</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.09770142452486535</v>
+        <v>0.4284206556502531</v>
       </c>
       <c r="E247" t="n">
         <v>17</v>
@@ -5318,13 +5318,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.4142503837525817</v>
+        <v>0.119319149473767</v>
       </c>
       <c r="C248" t="n">
-        <v>-0.835117852262256</v>
+        <v>0.2621876654746204</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.5704668841141673</v>
+        <v>0.6184931850516125</v>
       </c>
       <c r="E248" t="n">
         <v>17</v>
@@ -5338,13 +5338,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>-0.5165895842176464</v>
+        <v>0.1088624381838576</v>
       </c>
       <c r="C249" t="n">
-        <v>-0.9332759359973349</v>
+        <v>0.3660547085102439</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.172675962929569</v>
+        <v>0.5250828533058985</v>
       </c>
       <c r="E249" t="n">
         <v>17</v>
@@ -5358,13 +5358,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.7653964728784765</v>
+        <v>0.1068565104053593</v>
       </c>
       <c r="C250" t="n">
-        <v>-0.7551696043554063</v>
+        <v>0.271247140460025</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.6089248233139798</v>
+        <v>0.6218963491346157</v>
       </c>
       <c r="E250" t="n">
         <v>17</v>
@@ -5378,13 +5378,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>-0.4682339115301104</v>
+        <v>0.1176877041328884</v>
       </c>
       <c r="C251" t="n">
-        <v>-0.7905353583583432</v>
+        <v>0.1947399601381833</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.9298443571112882</v>
+        <v>0.6875723357289286</v>
       </c>
       <c r="E251" t="n">
         <v>17</v>
@@ -5398,13 +5398,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.3735269315786863</v>
+        <v>0.1775799066211377</v>
       </c>
       <c r="C252" t="n">
-        <v>-0.5504109221713822</v>
+        <v>0.308827449996129</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.3343211794631854</v>
+        <v>0.513592643382733</v>
       </c>
       <c r="E252" t="n">
         <v>17</v>
@@ -5418,13 +5418,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.986425535431404</v>
+        <v>0.07560856304509775</v>
       </c>
       <c r="C253" t="n">
-        <v>-0.9476315265210157</v>
+        <v>0.4634150324078105</v>
       </c>
       <c r="D253" t="n">
-        <v>0.05693486143010761</v>
+        <v>0.4609764045470919</v>
       </c>
       <c r="E253" t="n">
         <v>17</v>
@@ -5438,13 +5438,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.3769520719831776</v>
+        <v>0.1903450781113648</v>
       </c>
       <c r="C254" t="n">
-        <v>-0.4915011708987655</v>
+        <v>0.3296952362257212</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.2377850095297305</v>
+        <v>0.4799596856629141</v>
       </c>
       <c r="E254" t="n">
         <v>17</v>
@@ -5458,13 +5458,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.7745887522852276</v>
+        <v>0.1003115229560771</v>
       </c>
       <c r="C255" t="n">
-        <v>-0.8196199585488874</v>
+        <v>0.3787615692561762</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.1881468236411114</v>
+        <v>0.5209269077877465</v>
       </c>
       <c r="E255" t="n">
         <v>17</v>
@@ -5478,13 +5478,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>-0.4473332354134117</v>
+        <v>0.1683292216902451</v>
       </c>
       <c r="C256" t="n">
-        <v>-0.5590725434753676</v>
+        <v>0.3207041362964052</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.3113058294904814</v>
+        <v>0.5109666420133496</v>
       </c>
       <c r="E256" t="n">
         <v>17</v>
@@ -5498,13 +5498,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.3574887257931479</v>
+        <v>0.1610884821838679</v>
       </c>
       <c r="C257" t="n">
-        <v>-0.631621785293272</v>
+        <v>0.2787036916454157</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.4704693331197821</v>
+        <v>0.5602078261707165</v>
       </c>
       <c r="E257" t="n">
         <v>17</v>
@@ -5518,13 +5518,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.3760355946979408</v>
+        <v>0.207436490640965</v>
       </c>
       <c r="C258" t="n">
-        <v>-0.4150738889669862</v>
+        <v>0.3537367177759251</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.1232883023661755</v>
+        <v>0.4388267915831099</v>
       </c>
       <c r="E258" t="n">
         <v>17</v>
@@ -5538,13 +5538,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>-0.7429398713681814</v>
+        <v>0.2045609877646681</v>
       </c>
       <c r="C259" t="n">
-        <v>0.004179579903686281</v>
+        <v>0.5963207233161494</v>
       </c>
       <c r="D259" t="n">
-        <v>0.7653628259969741</v>
+        <v>0.1991182889191826</v>
       </c>
       <c r="E259" t="n">
         <v>17</v>
@@ -5558,13 +5558,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.1126523678505658</v>
+        <v>0.3751041891354648</v>
       </c>
       <c r="C260" t="n">
-        <v>-0.07893499736301746</v>
+        <v>0.2809716683170556</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.110135190424683</v>
+        <v>0.3439241425474797</v>
       </c>
       <c r="E260" t="n">
         <v>17</v>
@@ -5578,13 +5578,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.3178265783829923</v>
+        <v>0.4397928476283691</v>
       </c>
       <c r="C261" t="n">
-        <v>-0.005486781498225068</v>
+        <v>0.270659375239517</v>
       </c>
       <c r="D261" t="n">
-        <v>0.1634904948767095</v>
+        <v>0.2895477771321137</v>
       </c>
       <c r="E261" t="n">
         <v>17</v>
@@ -5598,13 +5598,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>-1.11661574674561</v>
+        <v>0.0564035425832349</v>
       </c>
       <c r="C262" t="n">
-        <v>-1.132620036424597</v>
+        <v>0.490255854058924</v>
       </c>
       <c r="D262" t="n">
-        <v>0.1103727210157924</v>
+        <v>0.4533406033578412</v>
       </c>
       <c r="E262" t="n">
         <v>17</v>
@@ -5618,13 +5618,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>-0.3768912229343223</v>
+        <v>0.2111563111364282</v>
       </c>
       <c r="C263" t="n">
-        <v>-0.3977159054436605</v>
+        <v>0.359261071353404</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.09734790024857791</v>
+        <v>0.4295826175101677</v>
       </c>
       <c r="E263" t="n">
         <v>17</v>
@@ -5638,13 +5638,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.6965441228723145</v>
+        <v>0.1468838903928811</v>
       </c>
       <c r="C264" t="n">
-        <v>-0.5376113429946576</v>
+        <v>0.3891490514019023</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.113387890480614</v>
+        <v>0.4639670582052164</v>
       </c>
       <c r="E264" t="n">
         <v>18</v>
@@ -5658,13 +5658,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>-0.5098871903720098</v>
+        <v>0.2053288441088143</v>
       </c>
       <c r="C265" t="n">
-        <v>-0.3280917869255988</v>
+        <v>0.4138230774632842</v>
       </c>
       <c r="D265" t="n">
-        <v>0.07107270472769166</v>
+        <v>0.3808480784279013</v>
       </c>
       <c r="E265" t="n">
         <v>18</v>
@@ -5678,13 +5678,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.7066084500470273</v>
+        <v>0.6890401233839937</v>
       </c>
       <c r="C266" t="n">
-        <v>0.561717571588256</v>
+        <v>0.1889784228532961</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4587243045949307</v>
+        <v>0.1219814537627104</v>
       </c>
       <c r="E266" t="n">
         <v>18</v>
@@ -5698,13 +5698,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>-1.086905010917291</v>
+        <v>0.14926254424227</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1224941354201453</v>
+        <v>0.6845996752831495</v>
       </c>
       <c r="D267" t="n">
-        <v>0.8983347095776143</v>
+        <v>0.1661377804745807</v>
       </c>
       <c r="E267" t="n">
         <v>18</v>
@@ -5718,13 +5718,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.5814688751462753</v>
+        <v>0.6734616275057776</v>
       </c>
       <c r="C268" t="n">
-        <v>0.630207197200367</v>
+        <v>0.2234073951975259</v>
       </c>
       <c r="D268" t="n">
-        <v>0.6636067326060109</v>
+        <v>0.1031309772966965</v>
       </c>
       <c r="E268" t="n">
         <v>18</v>
@@ -5738,13 +5738,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.6146968971505218</v>
+        <v>0.6521260694301824</v>
       </c>
       <c r="C269" t="n">
-        <v>0.5005023903543636</v>
+        <v>0.1952822473347972</v>
       </c>
       <c r="D269" t="n">
-        <v>0.1222662060608384</v>
+        <v>0.1525916832350204</v>
       </c>
       <c r="E269" t="n">
         <v>18</v>
@@ -5758,13 +5758,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>-0.8764189104297015</v>
+        <v>0.1396560444594761</v>
       </c>
       <c r="C270" t="n">
-        <v>-0.3951050479981641</v>
+        <v>0.6059571382108526</v>
       </c>
       <c r="D270" t="n">
-        <v>0.7044113229190475</v>
+        <v>0.2543868173296713</v>
       </c>
       <c r="E270" t="n">
         <v>18</v>
@@ -5778,13 +5778,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.9118695242947243</v>
+        <v>0.7747470272060495</v>
       </c>
       <c r="C271" t="n">
-        <v>0.7893638048720718</v>
+        <v>0.1476871318016222</v>
       </c>
       <c r="D271" t="n">
-        <v>0.6230833496858724</v>
+        <v>0.07756584099232811</v>
       </c>
       <c r="E271" t="n">
         <v>18</v>
@@ -5798,13 +5798,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>-0.5037883631483413</v>
+        <v>0.1371303795898194</v>
       </c>
       <c r="C272" t="n">
-        <v>-0.6948580446394166</v>
+        <v>0.3010353774309205</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.4203486383504801</v>
+        <v>0.5618342429792603</v>
       </c>
       <c r="E272" t="n">
         <v>18</v>
@@ -5818,13 +5818,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.02074809560601332</v>
+        <v>0.3718663770983808</v>
       </c>
       <c r="C273" t="n">
-        <v>-0.006481311891514518</v>
+        <v>0.3070257027789448</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.100329288103002</v>
+        <v>0.3211079201226745</v>
       </c>
       <c r="E273" t="n">
         <v>18</v>
@@ -5838,13 +5838,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>-0.4418022686759345</v>
+        <v>0.2332504845523512</v>
       </c>
       <c r="C274" t="n">
-        <v>-0.2449694079441349</v>
+        <v>0.4024245708969051</v>
       </c>
       <c r="D274" t="n">
-        <v>0.06287578658165853</v>
+        <v>0.3643249445507437</v>
       </c>
       <c r="E274" t="n">
         <v>18</v>
@@ -5858,13 +5858,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.6627927870074337</v>
+        <v>0.1735092245394779</v>
       </c>
       <c r="C275" t="n">
-        <v>-0.3945185924078028</v>
+        <v>0.4340407620639887</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0827945010807777</v>
+        <v>0.3924500133965334</v>
       </c>
       <c r="E275" t="n">
         <v>18</v>
@@ -5878,13 +5878,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>-0.6967423935579433</v>
+        <v>0.1433356446395779</v>
       </c>
       <c r="C276" t="n">
-        <v>-0.5506238521376368</v>
+        <v>0.4936509813497606</v>
       </c>
       <c r="D276" t="n">
-        <v>0.2950740945866833</v>
+        <v>0.3630133740106615</v>
       </c>
       <c r="E276" t="n">
         <v>18</v>
@@ -5898,13 +5898,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>-0.4838638747533008</v>
+        <v>0.288487683153528</v>
       </c>
       <c r="C277" t="n">
-        <v>0.2687653694754366</v>
+        <v>0.5774556794855158</v>
       </c>
       <c r="D277" t="n">
-        <v>1.038397199809862</v>
+        <v>0.1340566373609562</v>
       </c>
       <c r="E277" t="n">
         <v>18</v>
@@ -5918,13 +5918,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.4813713771406098</v>
+        <v>0.2347033410146989</v>
       </c>
       <c r="C278" t="n">
-        <v>-0.1808809710221794</v>
+        <v>0.5087093744793332</v>
       </c>
       <c r="D278" t="n">
-        <v>0.5795329653579226</v>
+        <v>0.2565872845059681</v>
       </c>
       <c r="E278" t="n">
         <v>18</v>
@@ -5938,13 +5938,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.3699997534500252</v>
+        <v>0.1908215976011416</v>
       </c>
       <c r="C279" t="n">
-        <v>-0.5041492828928245</v>
+        <v>0.383285247380534</v>
       </c>
       <c r="D279" t="n">
-        <v>0.01167196121230714</v>
+        <v>0.4258931550183243</v>
       </c>
       <c r="E279" t="n">
         <v>18</v>
@@ -5958,13 +5958,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.6789974609357197</v>
+        <v>0.2420981848911116</v>
       </c>
       <c r="C280" t="n">
-        <v>0.4170266147948305</v>
+        <v>0.6390647236828483</v>
       </c>
       <c r="D280" t="n">
-        <v>1.044598799384845</v>
+        <v>0.1188370914260398</v>
       </c>
       <c r="E280" t="n">
         <v>18</v>
@@ -5978,13 +5978,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>-1.042207556796507</v>
+        <v>0.1646007138863601</v>
       </c>
       <c r="C281" t="n">
-        <v>0.2646577062253485</v>
+        <v>0.6719807300944981</v>
       </c>
       <c r="D281" t="n">
-        <v>0.8079009439369446</v>
+        <v>0.1634185560191415</v>
       </c>
       <c r="E281" t="n">
         <v>18</v>
@@ -5998,13 +5998,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1960462545295351</v>
+        <v>0.3091330168582633</v>
       </c>
       <c r="C282" t="n">
-        <v>-0.305569260676419</v>
+        <v>0.2267961521663371</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.419136431949729</v>
+        <v>0.4640708309753994</v>
       </c>
       <c r="E282" t="n">
         <v>18</v>
@@ -6018,13 +6018,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>-0.3892157549824925</v>
+        <v>0.2095207161880416</v>
       </c>
       <c r="C283" t="n">
-        <v>-0.3977155895401421</v>
+        <v>0.3650059504446243</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.07756463152929623</v>
+        <v>0.4254733333673339</v>
       </c>
       <c r="E283" t="n">
         <v>18</v>
@@ -6038,13 +6038,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.4463568211876845</v>
+        <v>0.2023197370317669</v>
       </c>
       <c r="C284" t="n">
-        <v>-0.3951289429956927</v>
+        <v>0.3916515648854074</v>
       </c>
       <c r="D284" t="n">
-        <v>0.01200016806463367</v>
+        <v>0.406028698082826</v>
       </c>
       <c r="E284" t="n">
         <v>18</v>
@@ -6058,13 +6058,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.5700502670078594</v>
+        <v>0.2681928177758059</v>
       </c>
       <c r="C285" t="n">
-        <v>0.3162258887375347</v>
+        <v>0.5918530830029142</v>
       </c>
       <c r="D285" t="n">
-        <v>0.9267151920711901</v>
+        <v>0.13995409922128</v>
       </c>
       <c r="E285" t="n">
         <v>18</v>
@@ -6078,13 +6078,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>0.6114972097967102</v>
+        <v>0.6717070121324902</v>
       </c>
       <c r="C286" t="n">
-        <v>0.5768253788896627</v>
+        <v>0.2151056048393801</v>
       </c>
       <c r="D286" t="n">
-        <v>0.6160439633359992</v>
+        <v>0.1131873830281301</v>
       </c>
       <c r="E286" t="n">
         <v>18</v>
@@ -6098,13 +6098,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>-0.884213307039275</v>
+        <v>0.1301370426127012</v>
       </c>
       <c r="C287" t="n">
-        <v>-0.4714947176900372</v>
+        <v>0.61735988394834</v>
       </c>
       <c r="D287" t="n">
-        <v>0.741325028799772</v>
+        <v>0.2525030734389588</v>
       </c>
       <c r="E287" t="n">
         <v>18</v>
@@ -6118,13 +6118,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.2794907512232165</v>
+        <v>0.2620384584847563</v>
       </c>
       <c r="C288" t="n">
-        <v>-0.2366658949048742</v>
+        <v>0.368654673045838</v>
       </c>
       <c r="D288" t="n">
-        <v>0.01778219489339684</v>
+        <v>0.3693068684694057</v>
       </c>
       <c r="E288" t="n">
         <v>18</v>
@@ -6138,13 +6138,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>0.2775389609428005</v>
+        <v>0.6033433366767355</v>
       </c>
       <c r="C289" t="n">
-        <v>0.8853896862932543</v>
+        <v>0.3118548981115307</v>
       </c>
       <c r="D289" t="n">
-        <v>0.6416074275671694</v>
+        <v>0.08480176521173395</v>
       </c>
       <c r="E289" t="n">
         <v>18</v>
@@ -6158,13 +6158,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.7576155570864276</v>
+        <v>0.1609024233735956</v>
       </c>
       <c r="C290" t="n">
-        <v>-0.3791947517188331</v>
+        <v>0.5149839351039834</v>
       </c>
       <c r="D290" t="n">
-        <v>0.3750246243629261</v>
+        <v>0.3241136415224211</v>
       </c>
       <c r="E290" t="n">
         <v>18</v>
@@ -6178,13 +6178,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.9466046259471366</v>
+        <v>0.1541966216562381</v>
       </c>
       <c r="C291" t="n">
-        <v>-0.1845134248892941</v>
+        <v>0.6032359511490372</v>
       </c>
       <c r="D291" t="n">
-        <v>0.6524469334913614</v>
+        <v>0.2425674271947249</v>
       </c>
       <c r="E291" t="n">
         <v>18</v>
@@ -6198,13 +6198,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.5975402291450345</v>
+        <v>0.7195690764485466</v>
       </c>
       <c r="C292" t="n">
-        <v>1.007366199488919</v>
+        <v>0.2257387591647484</v>
       </c>
       <c r="D292" t="n">
-        <v>0.9267425841783458</v>
+        <v>0.05469216438670493</v>
       </c>
       <c r="E292" t="n">
         <v>18</v>
